--- a/hw/04-Pandas/Book1 backup answers.xlsx
+++ b/hw/04-Pandas/Book1 backup answers.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jegan\Desktop\Bootcamp\RBootcamp-personal\RBootcamp\hw\04-Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51562D5C-C9E3-421F-B667-344662801554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA37DB3-E903-4CC0-BD56-FD3455482475}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{54E87ED1-3840-405E-851B-9EB99CA5A27D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{54E87ED1-3840-405E-851B-9EB99CA5A27D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="43">
   <si>
     <t>District Summary</t>
   </si>
@@ -130,6 +131,33 @@
   </si>
   <si>
     <t>Reading</t>
+  </si>
+  <si>
+    <t>Spending Ranges (Per Student)</t>
+  </si>
+  <si>
+    <t>&lt;$585</t>
+  </si>
+  <si>
+    <t>$585-630</t>
+  </si>
+  <si>
+    <t>$630-645</t>
+  </si>
+  <si>
+    <t>$645-680</t>
+  </si>
+  <si>
+    <t>School Size</t>
+  </si>
+  <si>
+    <t>Small (&lt;1000)</t>
+  </si>
+  <si>
+    <t>Medium (1000-2000)</t>
+  </si>
+  <si>
+    <t>Large (2000-5000)</t>
   </si>
 </sst>
 </file>
@@ -139,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +187,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD84315"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -193,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -216,6 +250,15 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1556,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E64E9A-0574-4718-A1FF-86F5E9492149}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2320,4 +2363,283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D57703-0549-4A6F-B9B6-AF98457F3C3D}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>83.46</v>
+      </c>
+      <c r="C3">
+        <v>83.93</v>
+      </c>
+      <c r="D3">
+        <v>93.46</v>
+      </c>
+      <c r="E3">
+        <v>96.61</v>
+      </c>
+      <c r="F3">
+        <v>90.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C4">
+        <v>83.16</v>
+      </c>
+      <c r="D4">
+        <v>87.13</v>
+      </c>
+      <c r="E4">
+        <v>92.72</v>
+      </c>
+      <c r="F4">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>78.52</v>
+      </c>
+      <c r="C5">
+        <v>81.62</v>
+      </c>
+      <c r="D5">
+        <v>73.48</v>
+      </c>
+      <c r="E5">
+        <v>84.39</v>
+      </c>
+      <c r="F5">
+        <v>62.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>81.03</v>
+      </c>
+      <c r="D6">
+        <v>66.16</v>
+      </c>
+      <c r="E6">
+        <v>81.13</v>
+      </c>
+      <c r="F6">
+        <v>53.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>83.821597999999994</v>
+      </c>
+      <c r="C13">
+        <v>83.929843000000005</v>
+      </c>
+      <c r="D13">
+        <v>93.550224999999998</v>
+      </c>
+      <c r="E13">
+        <v>96.099436999999995</v>
+      </c>
+      <c r="F13">
+        <v>89.883853000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>83.374684000000002</v>
+      </c>
+      <c r="C14">
+        <v>83.864438000000007</v>
+      </c>
+      <c r="D14">
+        <v>93.599694999999997</v>
+      </c>
+      <c r="E14">
+        <v>96.790679999999995</v>
+      </c>
+      <c r="F14">
+        <v>90.621534999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>77.746416999999994</v>
+      </c>
+      <c r="C15">
+        <v>81.344493</v>
+      </c>
+      <c r="D15">
+        <v>69.963361000000006</v>
+      </c>
+      <c r="E15">
+        <v>82.766633999999996</v>
+      </c>
+      <c r="F15">
+        <v>58.286003000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8">
+        <v>83.473851999999994</v>
+      </c>
+      <c r="C21" s="8">
+        <v>83.896421000000004</v>
+      </c>
+      <c r="D21" s="8">
+        <v>93.620829999999998</v>
+      </c>
+      <c r="E21" s="8">
+        <v>96.586489</v>
+      </c>
+      <c r="F21" s="8">
+        <v>90.432243999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="12">
+        <v>76.956733</v>
+      </c>
+      <c r="C22" s="12">
+        <v>80.966635999999994</v>
+      </c>
+      <c r="D22" s="12">
+        <v>66.548452999999995</v>
+      </c>
+      <c r="E22" s="12">
+        <v>80.799062000000006</v>
+      </c>
+      <c r="F22" s="12">
+        <v>53.672207999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>